--- a/Docs/UniBOOM_GanttOutline.xlsx
+++ b/Docs/UniBOOM_GanttOutline.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,10 @@
   </si>
   <si>
     <t>演出效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：安排完具体任务后发现时间上还是可以缩一点，详见GanttDetail。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +139,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -303,56 +307,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
@@ -361,8 +332,44 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,18 +672,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL4"/>
+  <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="6" max="7" width="9" style="7"/>
-    <col min="13" max="14" width="9" style="7"/>
-    <col min="20" max="21" width="9" style="7"/>
-    <col min="27" max="28" width="9" style="7"/>
+    <col min="6" max="7" width="9" style="3"/>
+    <col min="13" max="14" width="9" style="3"/>
+    <col min="20" max="21" width="9" style="3"/>
+    <col min="27" max="28" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -695,10 +702,10 @@
       <c r="E1" s="1">
         <v>42132</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="2">
         <v>42133</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="2">
         <v>42134</v>
       </c>
       <c r="H1" s="1">
@@ -716,10 +723,10 @@
       <c r="L1" s="1">
         <v>42139</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="2">
         <v>42140</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="2">
         <v>42141</v>
       </c>
       <c r="O1" s="1">
@@ -737,10 +744,10 @@
       <c r="S1" s="1">
         <v>42146</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="2">
         <v>42147</v>
       </c>
-      <c r="U1" s="6">
+      <c r="U1" s="2">
         <v>42148</v>
       </c>
       <c r="V1" s="1">
@@ -758,10 +765,10 @@
       <c r="Z1" s="1">
         <v>42153</v>
       </c>
-      <c r="AA1" s="6">
+      <c r="AA1" s="2">
         <v>42154</v>
       </c>
-      <c r="AB1" s="6">
+      <c r="AB1" s="2">
         <v>42155</v>
       </c>
       <c r="AC1" s="1">
@@ -796,128 +803,154 @@
       </c>
     </row>
     <row r="2" spans="1:38">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="H2" s="2" t="s">
+      <c r="E2" s="12"/>
+      <c r="H2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="2" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="Q2" s="2" t="s">
+      <c r="L2" s="11"/>
+      <c r="Q2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="4"/>
-      <c r="X2" s="2" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="11"/>
+      <c r="X2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="4"/>
-      <c r="AC2" s="2" t="s">
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="11"/>
+      <c r="AC2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="2" t="s">
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="15" t="s">
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="12" t="s">
+      <c r="AH2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
       <c r="AL2" s="19"/>
     </row>
     <row r="3" spans="1:38">
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="16"/>
-      <c r="S3" s="17" t="s">
+      <c r="P3" s="12"/>
+      <c r="Q3" s="13"/>
+      <c r="S3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="8"/>
+      <c r="W3" s="15"/>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="H4" s="9" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="9"/>
+      <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="9" t="s">
+      <c r="I4" s="16"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="O4" s="9" t="s">
+      <c r="L4" s="9"/>
+      <c r="O4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="9" t="s">
+      <c r="P4" s="9"/>
+      <c r="Q4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="11"/>
-      <c r="V4" s="9" t="s">
+      <c r="R4" s="16"/>
+      <c r="S4" s="9"/>
+      <c r="V4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="W4" s="10"/>
-      <c r="X4" s="9" t="s">
+      <c r="W4" s="16"/>
+      <c r="X4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="18" t="s">
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AC4" s="18" t="s">
+      <c r="AC4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AD4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="18" t="s">
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="7" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="7" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:38">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A7:E8"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="AD4:AE4"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AE2:AF2"/>
@@ -929,15 +962,6 @@
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
